--- a/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 14,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 12,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 20,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 11,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,67; 7,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,66%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 19,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; 15,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 29,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; 13,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 15,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,89; 9,47</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,88; 7,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,8; -3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,68; 3,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; -2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,02; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; -6,46</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,35%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 11,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,83; -6,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 5,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; -3,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,97; 2,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,85; -9,24</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,28; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,51; 5,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,19; 22,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; 31,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; 6,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 13,61</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,86; 4,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,19; 10,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,38; 53,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; 78,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,09; 11,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,33; 26,31</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,83</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 2,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,22; -5,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 7,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 2,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,46; -4,98</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,6%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 2,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,68; -8,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 10,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; 2,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 3,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,6; -7,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 14,34</t>
+          <t>-6,67; 14,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 12,09</t>
+          <t>-11,77; 13,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 20,08</t>
+          <t>-6,61; 17,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 9,24</t>
+          <t>-21,73; 7,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,65</t>
+          <t>-4,61; 11,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 7,19</t>
+          <t>-13,87; 5,28</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 19,01</t>
+          <t>-7,73; 18,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 15,39</t>
+          <t>-13,51; 16,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 29,89</t>
+          <t>-7,86; 25,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 13,28</t>
+          <t>-26,48; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 15,64</t>
+          <t>-5,43; 15,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 9,47</t>
+          <t>-16,51; 6,67</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 7,74</t>
+          <t>-17,74; 6,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,8; -3,07</t>
+          <t>-28,98; -4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 3,93</t>
+          <t>-19,28; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,22; -2,42</t>
+          <t>-24,6; -1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 1,38</t>
+          <t>-15,4; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -6,46</t>
+          <t>-23,91; -7,1</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 11,82</t>
+          <t>-22,82; 9,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,83; -6,91</t>
+          <t>-38,38; -7,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 5,78</t>
+          <t>-23,03; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -3,62</t>
+          <t>-29,55; -2,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 2,24</t>
+          <t>-19,41; 0,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,85; -9,24</t>
+          <t>-30,35; -10,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 3,34</t>
+          <t>-45,47; 0,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 5,84</t>
+          <t>-40,82; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 22,13</t>
+          <t>-21,0; 22,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 31,46</t>
+          <t>-12,89; 30,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 6,48</t>
+          <t>-27,6; 7,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 13,61</t>
+          <t>-17,83; 13,15</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,86; 4,18</t>
+          <t>-59,32; 0,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 10,92</t>
+          <t>-52,82; 9,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 53,04</t>
+          <t>-34,4; 51,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 78,95</t>
+          <t>-19,41; 72,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 11,93</t>
+          <t>-40,96; 15,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 26,31</t>
+          <t>-26,12; 25,69</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,27</t>
+          <t>-13,35; 2,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -5,84</t>
+          <t>-23,84; -6,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>-9,07; 7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 1,43</t>
+          <t>-14,76; 1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,48</t>
+          <t>-8,93; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -4,98</t>
+          <t>-16,94; -4,45</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,86</t>
+          <t>-17,31; 2,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -8,05</t>
+          <t>-30,02; -9,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,52</t>
+          <t>-11,87; 10,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 2,08</t>
+          <t>-18,95; 2,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,42</t>
+          <t>-11,52; 2,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -7,2</t>
+          <t>-22,18; -6,31</t>
         </is>
       </c>
     </row>
